--- a/data/trans_orig/P52_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P52_2-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>74111</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63040</v>
+        <v>63944</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84404</v>
+        <v>84089</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6272257283355005</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5335314143917241</v>
+        <v>0.5411813474648491</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.71433663693005</v>
+        <v>0.7116751517364859</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -763,19 +763,19 @@
         <v>34858</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27937</v>
+        <v>28107</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40390</v>
+        <v>40457</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7215021415222164</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5782495884325844</v>
+        <v>0.5817750531606265</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8360027154737846</v>
+        <v>0.8373906901320973</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>109</v>
@@ -784,19 +784,19 @@
         <v>108969</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94605</v>
+        <v>96004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120020</v>
+        <v>120011</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6545868355345786</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5683006450952677</v>
+        <v>0.5767045540113162</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.720972271431238</v>
+        <v>0.7209184599304639</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7021</v>
+        <v>7130</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01695109100380935</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05941689789860512</v>
+        <v>0.0603459209131248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5596</v>
+        <v>5474</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02190693809709574</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1158254038713603</v>
+        <v>0.113297205259203</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -855,19 +855,19 @@
         <v>3061</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8215</v>
+        <v>8202</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01838938780571563</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005632983056715364</v>
+        <v>0.005579133951563032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04934802857469631</v>
+        <v>0.04927132122228054</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>4904</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1807</v>
+        <v>1915</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10876</v>
+        <v>11728</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04150086183245576</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01529223331741329</v>
+        <v>0.01620563532461879</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09204547768123619</v>
+        <v>0.09925583000240143</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5837</v>
+        <v>4185</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02036567062850428</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1208196043865789</v>
+        <v>0.08661673494510369</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -926,19 +926,19 @@
         <v>5888</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1932</v>
+        <v>2096</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12156</v>
+        <v>11838</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03536696033305282</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01160859920500063</v>
+        <v>0.01258920182784131</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07302472584492298</v>
+        <v>0.07111190471960001</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>37139</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27744</v>
+        <v>27599</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48321</v>
+        <v>47812</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3143223188282344</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2348091741164674</v>
+        <v>0.2335800506512384</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.408954604815404</v>
+        <v>0.4046454187546311</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -976,19 +976,19 @@
         <v>11413</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6586</v>
+        <v>5922</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18669</v>
+        <v>17681</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2362252497521836</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1363225200743178</v>
+        <v>0.1225774471110125</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3864211689362442</v>
+        <v>0.3659589477385399</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -997,19 +997,19 @@
         <v>48552</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38374</v>
+        <v>37610</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>61864</v>
+        <v>59912</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.291656816326653</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2305163661535621</v>
+        <v>0.2259273566832785</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3716215375254295</v>
+        <v>0.3598979533285427</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>64185</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>52850</v>
+        <v>51789</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>78628</v>
+        <v>77711</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4487960303740776</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3695396197181694</v>
+        <v>0.3621200505281983</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.549791320071697</v>
+        <v>0.5433787529374766</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -1122,19 +1122,19 @@
         <v>26763</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19441</v>
+        <v>19549</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34440</v>
+        <v>34256</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4984132892966647</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3620609505137306</v>
+        <v>0.3640642297173489</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6413959699513726</v>
+        <v>0.6379697495124892</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>80</v>
@@ -1143,19 +1143,19 @@
         <v>90948</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>75241</v>
+        <v>75641</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>106268</v>
+        <v>105259</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4623400004985845</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3824908907036257</v>
+        <v>0.38452771678296</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.540223103089751</v>
+        <v>0.5350901476442042</v>
       </c>
     </row>
     <row r="10">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4916</v>
+        <v>4928</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006621081971346769</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0343741081004903</v>
+        <v>0.03446024756510035</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7905</v>
+        <v>7082</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0407816926108664</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1472146133271443</v>
+        <v>0.131886070198126</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1217,16 +1217,16 @@
         <v>935</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8636</v>
+        <v>9717</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01594586733803596</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004753398954912453</v>
+        <v>0.004754247002011158</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04389998870561843</v>
+        <v>0.04939519711021932</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>5077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1779</v>
+        <v>1821</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13007</v>
+        <v>12636</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03549881893669291</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01243767872550377</v>
+        <v>0.01273336499476031</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09095162284774418</v>
+        <v>0.08835280586843276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7439</v>
+        <v>7825</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04130493193184693</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1385368296908919</v>
+        <v>0.1457361019150477</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1285,19 +1285,19 @@
         <v>7295</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2980</v>
+        <v>2964</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15286</v>
+        <v>15985</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03708370739392446</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01514994551498478</v>
+        <v>0.01506794238427225</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07770641438465595</v>
+        <v>0.08126140819036118</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>72807</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>58738</v>
+        <v>60519</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>84011</v>
+        <v>84177</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5090840687178827</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4107142194969713</v>
+        <v>0.4231678155417396</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5874271876224477</v>
+        <v>0.5885913722213832</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -1335,19 +1335,19 @@
         <v>22525</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15583</v>
+        <v>15920</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30112</v>
+        <v>30204</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.419500086160622</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2902053357334956</v>
+        <v>0.2964909875132285</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5607793294768789</v>
+        <v>0.5625064893815878</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>91</v>
@@ -1356,19 +1356,19 @@
         <v>95333</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>80531</v>
+        <v>80675</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>110773</v>
+        <v>110817</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.484630424769455</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4093871977385765</v>
+        <v>0.4101193241181748</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5631246943248363</v>
+        <v>0.5633459422018079</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>42838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31980</v>
+        <v>32572</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54710</v>
+        <v>53761</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3813997344899451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2847299781626417</v>
+        <v>0.2899954759373516</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.487099276293441</v>
+        <v>0.4786460090795162</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1481,19 +1481,19 @@
         <v>27438</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20514</v>
+        <v>20087</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34702</v>
+        <v>34626</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5175773507985409</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3869615778508572</v>
+        <v>0.3789120102193722</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6546052284209045</v>
+        <v>0.6531685491633081</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -1502,19 +1502,19 @@
         <v>70276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>58571</v>
+        <v>57991</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>82377</v>
+        <v>82421</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4250642614651238</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3542676733634073</v>
+        <v>0.3507614921965139</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4982568030844358</v>
+        <v>0.4985249331419225</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>3742</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8668</v>
+        <v>8698</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03331563388025626</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008307886346865617</v>
+        <v>0.008321708596024168</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07717571999860386</v>
+        <v>0.07743876271730496</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7395</v>
+        <v>7539</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03905254192775735</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1394902214980139</v>
+        <v>0.1422062923342363</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1573,19 +1573,19 @@
         <v>5812</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2665</v>
+        <v>2073</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11929</v>
+        <v>12624</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03515513866073771</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01611826594230841</v>
+        <v>0.01254065168373965</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07215077175017284</v>
+        <v>0.0763560325316343</v>
       </c>
     </row>
     <row r="16">
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4791</v>
+        <v>4886</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00839211208843855</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04265654969415702</v>
+        <v>0.04349754048690483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1623,19 +1623,19 @@
         <v>2871</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7483</v>
+        <v>7044</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0541536255963441</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01673852354994516</v>
+        <v>0.01671595747154886</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1411593242894605</v>
+        <v>0.1328803621455662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1644,19 +1644,19 @@
         <v>3813</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9557</v>
+        <v>8743</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02306526392613023</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005742594509410034</v>
+        <v>0.005728747379949787</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05780464731237751</v>
+        <v>0.05287937674673521</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>64795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52791</v>
+        <v>53162</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75728</v>
+        <v>74961</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5768925195413601</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4700157023618954</v>
+        <v>0.4733170695217767</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6742293936609448</v>
+        <v>0.6673971640736863</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -1694,19 +1694,19 @@
         <v>20633</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13913</v>
+        <v>14617</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27717</v>
+        <v>28441</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3892164816773576</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2624488655422506</v>
+        <v>0.2757233162780648</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5228525463932812</v>
+        <v>0.5365093048601248</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>83</v>
@@ -1715,19 +1715,19 @@
         <v>85429</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>73075</v>
+        <v>72220</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>98957</v>
+        <v>97992</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5167153359480083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4419919406021266</v>
+        <v>0.4368233644229327</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5985418858322028</v>
+        <v>0.5927083900432516</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>43502</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33640</v>
+        <v>33547</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55409</v>
+        <v>53924</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4558003328012266</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3524664658357332</v>
+        <v>0.3514990800224266</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5805627620396661</v>
+        <v>0.5649979329964423</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1840,19 +1840,19 @@
         <v>9744</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5086</v>
+        <v>5142</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14054</v>
+        <v>14482</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4768637994108209</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2488936451056956</v>
+        <v>0.25165967402832</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6877596928336306</v>
+        <v>0.7087384565159636</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -1861,19 +1861,19 @@
         <v>53246</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41542</v>
+        <v>42136</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64748</v>
+        <v>65794</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4595148104673195</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.358506850387491</v>
+        <v>0.3636345687556974</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5587710864059668</v>
+        <v>0.5678051307004328</v>
       </c>
     </row>
     <row r="20">
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7359</v>
+        <v>6378</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02176434572766133</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07710456432682133</v>
+        <v>0.06682188206599796</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4211</v>
+        <v>5023</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04780095195258526</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2060551496365032</v>
+        <v>0.245792539507943</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1932,19 +1932,19 @@
         <v>3054</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8363</v>
+        <v>8016</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0263558212960411</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008330994390173218</v>
+        <v>0.008205233517460882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07217608939831048</v>
+        <v>0.06918014418409119</v>
       </c>
     </row>
     <row r="21">
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5764</v>
+        <v>5749</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01451905499857203</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06038854153420598</v>
+        <v>0.06023095848688172</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8656</v>
+        <v>8271</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0937701209256402</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4236044515112301</v>
+        <v>0.4047459597038937</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11774</v>
+        <v>11364</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02849473715271772</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1016063701933981</v>
+        <v>0.0980748737097855</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>48476</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37475</v>
+        <v>37830</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58907</v>
+        <v>59304</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5079162664725401</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3926527213914323</v>
+        <v>0.3963745345029321</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6172129680418201</v>
+        <v>0.6213642789515632</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2053,19 +2053,19 @@
         <v>7797</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3766</v>
+        <v>3387</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12951</v>
+        <v>12610</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3815651277109536</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1843209573434546</v>
+        <v>0.1657463283667166</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6337932077466866</v>
+        <v>0.6170970691628626</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -2074,19 +2074,19 @@
         <v>56273</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44424</v>
+        <v>42956</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68248</v>
+        <v>66894</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4856346310839217</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3833766565167499</v>
+        <v>0.3707127424142374</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5889762498916824</v>
+        <v>0.5772913552493497</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>7642</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3209</v>
+        <v>3360</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13436</v>
+        <v>14662</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2312779033779051</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09710139084548791</v>
+        <v>0.1016905024725508</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4066018414994855</v>
+        <v>0.4437013050213023</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2199,19 +2199,19 @@
         <v>4453</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1239</v>
+        <v>1102</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7516</v>
+        <v>7532</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5092790235816601</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1416865008429505</v>
+        <v>0.1259935278579055</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8596037637387066</v>
+        <v>0.861493424450481</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -2220,19 +2220,19 @@
         <v>12095</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6751</v>
+        <v>6618</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>18674</v>
+        <v>17874</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2894430385085728</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1615542485876588</v>
+        <v>0.158377370631188</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4468773758087622</v>
+        <v>0.4277481710351952</v>
       </c>
     </row>
     <row r="25">
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6738</v>
+        <v>6258</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06050915209719946</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2038961217527155</v>
+        <v>0.1893914331716516</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6553</v>
+        <v>6321</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04784904840482523</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1568182439918393</v>
+        <v>0.1512655273734468</v>
       </c>
     </row>
     <row r="27">
@@ -2359,19 +2359,19 @@
         <v>23402</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17438</v>
+        <v>16533</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28602</v>
+        <v>27817</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7082129445248955</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5277333642198476</v>
+        <v>0.5003242046091092</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.865586552204938</v>
+        <v>0.8418303682833547</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -2380,19 +2380,19 @@
         <v>4290</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7504</v>
+        <v>7641</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4907209764183399</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1403962362612932</v>
+        <v>0.1385065755495187</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8583134991570494</v>
+        <v>0.8740064721420945</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>24</v>
@@ -2401,19 +2401,19 @@
         <v>27693</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>21219</v>
+        <v>21466</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>33497</v>
+        <v>33266</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.662707913086602</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5077814384094627</v>
+        <v>0.5137044983748321</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8016117321539552</v>
+        <v>0.7960771154774712</v>
       </c>
     </row>
     <row r="28">
@@ -2505,19 +2505,19 @@
         <v>4166</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1061</v>
+        <v>949</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8736</v>
+        <v>8551</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2580270690355015</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06568447515639374</v>
+        <v>0.05875612863470138</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.541054494257977</v>
+        <v>0.5295505282570033</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2539,19 +2539,19 @@
         <v>5228</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1823</v>
+        <v>1842</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10118</v>
+        <v>10333</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3038158334042237</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1059504995510484</v>
+        <v>0.1070620997127525</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5879308853467506</v>
+        <v>0.6004655736810276</v>
       </c>
     </row>
     <row r="30">
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7995</v>
+        <v>8212</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1433754680564019</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4951688669329846</v>
+        <v>0.5085809530843379</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8197</v>
+        <v>8283</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1345274558862598</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4763308248599599</v>
+        <v>0.4813224308549069</v>
       </c>
     </row>
     <row r="32">
@@ -2678,19 +2678,19 @@
         <v>9666</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4900</v>
+        <v>5283</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13859</v>
+        <v>13928</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5985974629080966</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3034891423712045</v>
+        <v>0.3271899861161143</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8583036519753864</v>
+        <v>0.8625770953365396</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         <v>9666</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4456</v>
+        <v>4246</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14222</v>
+        <v>14076</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5616567107095164</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2589360891097722</v>
+        <v>0.2467360076849371</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8264300991190662</v>
+        <v>0.8179523908498625</v>
       </c>
     </row>
     <row r="33">
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3357</v>
+        <v>3263</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2611541872351683</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7905246683470035</v>
+        <v>0.7684645630469773</v>
       </c>
     </row>
     <row r="35">
@@ -2991,7 +2991,7 @@
         <v>3137</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>889</v>
+        <v>983</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>4246</v>
@@ -3000,7 +3000,7 @@
         <v>0.7388458127648317</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2094753316529999</v>
+        <v>0.2315354369530227</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -3095,19 +3095,19 @@
         <v>236444</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>210713</v>
+        <v>212012</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>260553</v>
+        <v>259021</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4536028260553159</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4042390172855154</v>
+        <v>0.4067317171948515</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4998544087334719</v>
+        <v>0.4969152227171637</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>100</v>
@@ -3116,19 +3116,19 @@
         <v>105426</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>91442</v>
+        <v>90998</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>119146</v>
+        <v>119879</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.5656859538855671</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.4906519616421599</v>
+        <v>0.4882664780557959</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6392999507349663</v>
+        <v>0.6432352071205067</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>320</v>
@@ -3137,19 +3137,19 @@
         <v>341870</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>315874</v>
+        <v>313171</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>369396</v>
+        <v>370846</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.4831223865246073</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.4463847584877444</v>
+        <v>0.4425648622196814</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5220208644883696</v>
+        <v>0.5240695852800048</v>
       </c>
     </row>
     <row r="40">
@@ -3166,19 +3166,19 @@
         <v>8769</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3929</v>
+        <v>3993</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15655</v>
+        <v>16680</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01682264871890045</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.007537823141747013</v>
+        <v>0.007659558849826262</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03003334289097333</v>
+        <v>0.03199974555868624</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -3187,19 +3187,19 @@
         <v>6295</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2194</v>
+        <v>2623</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12654</v>
+        <v>13763</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.033778328893069</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01177008400198287</v>
+        <v>0.0140716728608578</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06789742279267928</v>
+        <v>0.07384921069521141</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>15</v>
@@ -3208,19 +3208,19 @@
         <v>15064</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8774</v>
+        <v>9377</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>24416</v>
+        <v>25136</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02128830056042804</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0123989486535146</v>
+        <v>0.01325117176090966</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03450389797839659</v>
+        <v>0.03552084164926464</v>
       </c>
     </row>
     <row r="41">
@@ -3237,19 +3237,19 @@
         <v>16623</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9517</v>
+        <v>9345</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>27313</v>
+        <v>27972</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03189071146966756</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01825841524786595</v>
+        <v>0.0179278768220608</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05239900613559977</v>
+        <v>0.05366253049038423</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -3258,19 +3258,19 @@
         <v>7989</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3808</v>
+        <v>3908</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>17462</v>
+        <v>17313</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04286518979561092</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02043121873590638</v>
+        <v>0.0209714599058085</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09369407367156479</v>
+        <v>0.09289471307502017</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>21</v>
@@ -3279,19 +3279,19 @@
         <v>24612</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>15367</v>
+        <v>15441</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>37605</v>
+        <v>38486</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03478108206186097</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02171597062887845</v>
+        <v>0.02182098236844061</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05314246426150339</v>
+        <v>0.05438803455465235</v>
       </c>
     </row>
     <row r="42">
@@ -3308,19 +3308,19 @@
         <v>259422</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>236094</v>
+        <v>235114</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>286211</v>
+        <v>283873</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4976838137561161</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4529313151490877</v>
+        <v>0.4510505203799392</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5490778103118851</v>
+        <v>0.54459126371636</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>63</v>
@@ -3329,19 +3329,19 @@
         <v>66659</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>54605</v>
+        <v>53058</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>80723</v>
+        <v>80847</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3576705274257529</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2929916387518068</v>
+        <v>0.2846914129338383</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4331374533100448</v>
+        <v>0.4338008496423515</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>304</v>
@@ -3350,19 +3350,19 @@
         <v>326080</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>298703</v>
+        <v>298018</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>353657</v>
+        <v>352100</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4608082308531037</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4221191049827813</v>
+        <v>0.4211509473526426</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4997794796577932</v>
+        <v>0.4975790333120256</v>
       </c>
     </row>
     <row r="43">
@@ -3697,19 +3697,19 @@
         <v>64791</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53574</v>
+        <v>54099</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77195</v>
+        <v>77665</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4646049663587338</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3841696533362941</v>
+        <v>0.387933834639083</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5535534668011399</v>
+        <v>0.5569245237916434</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -3718,19 +3718,19 @@
         <v>26173</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18645</v>
+        <v>18684</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33761</v>
+        <v>32585</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5205030028192276</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3708036703016667</v>
+        <v>0.3715733099291841</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6714050140396403</v>
+        <v>0.648027788373944</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -3739,19 +3739,19 @@
         <v>90964</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75995</v>
+        <v>78573</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103558</v>
+        <v>104805</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4794190554196104</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4005307248554789</v>
+        <v>0.4141146594511523</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5457984171164451</v>
+        <v>0.552367346420676</v>
       </c>
     </row>
     <row r="5">
@@ -3768,19 +3768,19 @@
         <v>8257</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3230</v>
+        <v>4069</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14496</v>
+        <v>15479</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05921175693499536</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02316355822629434</v>
+        <v>0.02917800083332392</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1039471867886954</v>
+        <v>0.1109999505263859</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6537</v>
+        <v>6028</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03921366394998568</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1299980856393687</v>
+        <v>0.1198785942095829</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -3810,19 +3810,19 @@
         <v>10229</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5143</v>
+        <v>5204</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17792</v>
+        <v>17402</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05391186539520926</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02710377272353516</v>
+        <v>0.02742612310508367</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09377347796126341</v>
+        <v>0.09171867051362394</v>
       </c>
     </row>
     <row r="6">
@@ -3839,19 +3839,19 @@
         <v>5084</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1998</v>
+        <v>1977</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12029</v>
+        <v>12172</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0364553501222002</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01432680798021098</v>
+        <v>0.01417451453425045</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08625637371800385</v>
+        <v>0.08728357777911806</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>5084</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1986</v>
+        <v>1070</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11386</v>
+        <v>11103</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02679395881666839</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01046673182703126</v>
+        <v>0.005639198312996152</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06000961227084723</v>
+        <v>0.05851642188541857</v>
       </c>
     </row>
     <row r="7">
@@ -3902,19 +3902,19 @@
         <v>61321</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49321</v>
+        <v>50068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72728</v>
+        <v>73535</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4397279265840707</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3536763896337272</v>
+        <v>0.3590347333065915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5215224569941912</v>
+        <v>0.5273111315297674</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -3923,19 +3923,19 @@
         <v>22139</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14507</v>
+        <v>15536</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29510</v>
+        <v>29434</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4402833332307867</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.288503200336173</v>
+        <v>0.3089581318514199</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5868667603600253</v>
+        <v>0.5853544811176038</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -3944,19 +3944,19 @@
         <v>83461</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70161</v>
+        <v>70862</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97219</v>
+        <v>95818</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4398751203685119</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3697799915393664</v>
+        <v>0.3734758351882376</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5123891614248227</v>
+        <v>0.5050036702872801</v>
       </c>
     </row>
     <row r="8">
@@ -4048,19 +4048,19 @@
         <v>57831</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>45809</v>
+        <v>46641</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>70716</v>
+        <v>70885</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3671623713612321</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2908329634180538</v>
+        <v>0.2961213895048784</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4489689014021623</v>
+        <v>0.4500420541367545</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -4069,19 +4069,19 @@
         <v>26220</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18276</v>
+        <v>19005</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34959</v>
+        <v>34147</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3934768376558756</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2742642517034914</v>
+        <v>0.2852035037403518</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5246267202764885</v>
+        <v>0.5124421863772272</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>80</v>
@@ -4090,19 +4090,19 @@
         <v>84050</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>69160</v>
+        <v>69771</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>98678</v>
+        <v>99039</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3749854086722965</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3085542464085319</v>
+        <v>0.3112794550497912</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4402445852738829</v>
+        <v>0.4418546859506956</v>
       </c>
     </row>
     <row r="10">
@@ -4119,19 +4119,19 @@
         <v>8191</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3204</v>
+        <v>3661</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15822</v>
+        <v>15708</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05200301976952902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02034203949396962</v>
+        <v>0.02324331758141746</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1004534135783834</v>
+        <v>0.09973108710500496</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5434</v>
+        <v>5189</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01652699112446748</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08154285565473611</v>
+        <v>0.07787661638170705</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -4161,19 +4161,19 @@
         <v>9292</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4230</v>
+        <v>4105</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17943</v>
+        <v>16668</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.041456338235836</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01887326843231407</v>
+        <v>0.01831590919013475</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0800512121835419</v>
+        <v>0.07436369641687438</v>
       </c>
     </row>
     <row r="11">
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6384</v>
+        <v>6814</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01334504009854771</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04053174472448818</v>
+        <v>0.04326359420402095</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6933</v>
+        <v>6093</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02964966975865036</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1040502457644362</v>
+        <v>0.09143532083187257</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -4232,19 +4232,19 @@
         <v>4078</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10342</v>
+        <v>9409</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01819224941474172</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004699724675440744</v>
+        <v>0.004717758923961783</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04613967340951419</v>
+        <v>0.04197661040167613</v>
       </c>
     </row>
     <row r="12">
@@ -4261,19 +4261,19 @@
         <v>89384</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>76873</v>
+        <v>76622</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>102318</v>
+        <v>100997</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5674895687706911</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4880602208148802</v>
+        <v>0.4864620452818233</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6496049385791539</v>
+        <v>0.6412204900240454</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -4282,19 +4282,19 @@
         <v>37339</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29159</v>
+        <v>29161</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44664</v>
+        <v>44855</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5603465014610065</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4375810651322472</v>
+        <v>0.437612261136496</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6702699764803928</v>
+        <v>0.6731380310776296</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>123</v>
@@ -4303,19 +4303,19 @@
         <v>126723</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>111143</v>
+        <v>111569</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>141381</v>
+        <v>141044</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5653660036771259</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4958556303664823</v>
+        <v>0.4977562927390866</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6307618790941545</v>
+        <v>0.6292594586195518</v>
       </c>
     </row>
     <row r="13">
@@ -4407,19 +4407,19 @@
         <v>25008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16803</v>
+        <v>16139</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35811</v>
+        <v>35777</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1537343757337265</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1032995991423584</v>
+        <v>0.09921457700654668</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2201465186639728</v>
+        <v>0.2199412746352668</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -4428,19 +4428,19 @@
         <v>17204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11209</v>
+        <v>11331</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25390</v>
+        <v>25882</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.255535877872561</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1665004030179085</v>
+        <v>0.1683086758267003</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.377126354775546</v>
+        <v>0.3844331505571484</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>41</v>
@@ -4449,19 +4449,19 @@
         <v>42211</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31506</v>
+        <v>30425</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55527</v>
+        <v>54877</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1835341007729018</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1369862558007093</v>
+        <v>0.1322896507205744</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2414329444972272</v>
+        <v>0.2386038783550631</v>
       </c>
     </row>
     <row r="15">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7498</v>
+        <v>6449</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01232449279070696</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04609136650009413</v>
+        <v>0.03964389522327876</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5728</v>
+        <v>6420</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02735194430764382</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08508000265423454</v>
+        <v>0.09536036399067159</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -4520,19 +4520,19 @@
         <v>3846</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9732</v>
+        <v>8982</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01672338587023675</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.004077381153055078</v>
+        <v>0.004091070318429506</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04231312212814192</v>
+        <v>0.03905317789877225</v>
       </c>
     </row>
     <row r="16">
@@ -4549,19 +4549,19 @@
         <v>5157</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11901</v>
+        <v>11076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0317000969049441</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01220062191713488</v>
+        <v>0.01214614008410852</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07316273400967699</v>
+        <v>0.06809105665730407</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4701</v>
+        <v>4487</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01450264380854573</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06982323606052063</v>
+        <v>0.06664566116883185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -4591,19 +4591,19 @@
         <v>6133</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2103</v>
+        <v>2076</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12568</v>
+        <v>12292</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02666599266404717</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009142277620836574</v>
+        <v>0.009028279353822463</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05464760477660201</v>
+        <v>0.05344459474789742</v>
       </c>
     </row>
     <row r="17">
@@ -4620,19 +4620,19 @@
         <v>130498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>118969</v>
+        <v>118699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>139968</v>
+        <v>140383</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8022410345706223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7313657081933347</v>
+        <v>0.7297070654505301</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8604583253857385</v>
+        <v>0.8630065108209134</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -4641,19 +4641,19 @@
         <v>47302</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39081</v>
+        <v>38825</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53902</v>
+        <v>54033</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7026095340112495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5804939053510954</v>
+        <v>0.5766952326248065</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8006319423348147</v>
+        <v>0.8025763914844994</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>166</v>
@@ -4662,19 +4662,19 @@
         <v>177801</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>164125</v>
+        <v>163879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>190203</v>
+        <v>189818</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7730765206928143</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7136134498387728</v>
+        <v>0.7125452141822852</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8269999648634158</v>
+        <v>0.8253298500313249</v>
       </c>
     </row>
     <row r="18">
@@ -4766,19 +4766,19 @@
         <v>16241</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8969</v>
+        <v>10024</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25978</v>
+        <v>26097</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1632574076447361</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09016191672205402</v>
+        <v>0.1007620577509435</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2611321124760186</v>
+        <v>0.262332062456765</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -4787,19 +4787,19 @@
         <v>18618</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11816</v>
+        <v>12470</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24759</v>
+        <v>25195</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4418844983370525</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2804459549353603</v>
+        <v>0.2959642823475861</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.587634922251326</v>
+        <v>0.5979811729614607</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -4808,19 +4808,19 @@
         <v>34859</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25242</v>
+        <v>25435</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46952</v>
+        <v>47821</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2461535205215179</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1782407983834509</v>
+        <v>0.1796096710696521</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3315462918457908</v>
+        <v>0.3376866514454227</v>
       </c>
     </row>
     <row r="20">
@@ -4837,19 +4837,19 @@
         <v>4882</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12407</v>
+        <v>11846</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04906929677906898</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01354099260513798</v>
+        <v>0.0134300675188105</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1247209678941668</v>
+        <v>0.1190737611351232</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10524</v>
+        <v>9041</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06821540987661416</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2497689836919307</v>
+        <v>0.2145821966632686</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -4879,19 +4879,19 @@
         <v>7756</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3272</v>
+        <v>2625</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15912</v>
+        <v>16221</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05476557831630969</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02310397106690643</v>
+        <v>0.01853444536723611</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1123614635546999</v>
+        <v>0.1145414097721913</v>
       </c>
     </row>
     <row r="21">
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8673</v>
+        <v>9576</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02707882696937055</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08718421276467171</v>
+        <v>0.09625477124354324</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9695</v>
+        <v>8862</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0190224334168046</v>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06846149684509791</v>
+        <v>0.06257578163008151</v>
       </c>
     </row>
     <row r="22">
@@ -4971,19 +4971,19 @@
         <v>75665</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>65485</v>
+        <v>64716</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84013</v>
+        <v>83409</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7605944686068243</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6582550631709516</v>
+        <v>0.650526454106979</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8445009121812682</v>
+        <v>0.8384351892404236</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -4992,19 +4992,19 @@
         <v>20641</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14506</v>
+        <v>14199</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27502</v>
+        <v>27468</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4899000917863334</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3442966932283679</v>
+        <v>0.3369996375990302</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6527307564384864</v>
+        <v>0.6519406756534953</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -5013,19 +5013,19 @@
         <v>96306</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>83202</v>
+        <v>82299</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107939</v>
+        <v>106973</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6800584677453678</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5875206898612415</v>
+        <v>0.5811490999161053</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7622034672150373</v>
+        <v>0.7553763297717001</v>
       </c>
     </row>
     <row r="23">
@@ -5117,19 +5117,19 @@
         <v>13303</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8290</v>
+        <v>7485</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20473</v>
+        <v>19817</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3410972342709304</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2125608577146501</v>
+        <v>0.1919112245458891</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5249372006407059</v>
+        <v>0.5081354440884339</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -5138,19 +5138,19 @@
         <v>3429</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6337</v>
+        <v>6875</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3924265583572236</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1061587481984038</v>
+        <v>0.1074928475057659</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.725356349040336</v>
+        <v>0.7868607748845891</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -5159,19 +5159,19 @@
         <v>16731</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10252</v>
+        <v>9740</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24493</v>
+        <v>23870</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3504914890368995</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2147631391879619</v>
+        <v>0.2040400663808282</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5130948339518429</v>
+        <v>0.5000315486978112</v>
       </c>
     </row>
     <row r="25">
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4967</v>
+        <v>5240</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02629701258730786</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1273531379075138</v>
+        <v>0.1343655835942454</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5206</v>
+        <v>5159</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1416169292765561</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5959006074075275</v>
+        <v>0.5904390291527759</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7196</v>
+        <v>7952</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04740277807815764</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1507558408303534</v>
+        <v>0.1665796925038071</v>
       </c>
     </row>
     <row r="26">
@@ -5306,19 +5306,19 @@
         <v>24672</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17786</v>
+        <v>18201</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30161</v>
+        <v>30533</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6326057531417618</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.456060412455052</v>
+        <v>0.4666798186848032</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7733545100958122</v>
+        <v>0.782892706057831</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -5327,19 +5327,19 @@
         <v>4071</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7586</v>
+        <v>7670</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4659565123662203</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1381305566235294</v>
+        <v>0.1369969593900278</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.868243493508672</v>
+        <v>0.8779047488179714</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>24</v>
@@ -5348,19 +5348,19 @@
         <v>28742</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20899</v>
+        <v>21518</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>35600</v>
+        <v>35868</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.602105732884943</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4378107763428251</v>
+        <v>0.4507650924784279</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7457611281733937</v>
+        <v>0.751389584874177</v>
       </c>
     </row>
     <row r="28">
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3893</v>
+        <v>4910</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07159494105151938</v>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3106689238332374</v>
+        <v>0.3918058616987197</v>
       </c>
     </row>
     <row r="30">
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4485</v>
+        <v>4376</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07949057801796792</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3579133906896144</v>
+        <v>0.3491622814192777</v>
       </c>
     </row>
     <row r="31">
@@ -5659,7 +5659,7 @@
         <v>10639</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>7366</v>
+        <v>6436</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>12532</v>
@@ -5668,7 +5668,7 @@
         <v>0.8489144809305127</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5877552674898556</v>
+        <v>0.5135836364961012</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -6030,19 +6030,19 @@
         <v>177979</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>156033</v>
+        <v>157568</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>201450</v>
+        <v>202758</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2912388510612459</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2553270067643454</v>
+        <v>0.2578378081633693</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3296462014599373</v>
+        <v>0.3317864767582117</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>90</v>
@@ -6051,19 +6051,19 @@
         <v>92540</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>78650</v>
+        <v>78750</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>107412</v>
+        <v>109750</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3889281141517202</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.3305529166898577</v>
+        <v>0.3309722551888302</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.4514325191309559</v>
+        <v>0.4612604407631996</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>255</v>
@@ -6072,19 +6072,19 @@
         <v>270519</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>242610</v>
+        <v>243683</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>298240</v>
+        <v>299601</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3186151258598844</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2857447501239965</v>
+        <v>0.2870075392705072</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3512646526950308</v>
+        <v>0.3528682208629916</v>
       </c>
     </row>
     <row r="40">
@@ -6101,19 +6101,19 @@
         <v>24360</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>15973</v>
+        <v>15578</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>36268</v>
+        <v>35860</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03986181486282008</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02613780703477643</v>
+        <v>0.02549105218070838</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.059347590988165</v>
+        <v>0.05867994631603259</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>9</v>
@@ -6122,19 +6122,19 @@
         <v>10022</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4956</v>
+        <v>4792</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>18089</v>
+        <v>18339</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04212100615683986</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02083048315497127</v>
+        <v>0.02013871448798886</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07602398900287989</v>
+        <v>0.07707440343121207</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>31</v>
@@ -6143,19 +6143,19 @@
         <v>34382</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>23896</v>
+        <v>23317</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>47971</v>
+        <v>47268</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04049492683164</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02814403542118097</v>
+        <v>0.02746286021063386</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05650034889001579</v>
+        <v>0.05567218289187773</v>
       </c>
     </row>
     <row r="41">
@@ -6172,19 +6172,19 @@
         <v>15036</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8181</v>
+        <v>8422</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24311</v>
+        <v>24208</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02460464719373413</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01338682772152175</v>
+        <v>0.01378169562530552</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03978164301280034</v>
+        <v>0.03961262009515738</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -6193,19 +6193,19 @@
         <v>2952</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7876</v>
+        <v>8554</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01240714403819</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003913665854314556</v>
+        <v>0.003940778338591195</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03310147961271302</v>
+        <v>0.03595178866183529</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>17</v>
@@ -6214,19 +6214,19 @@
         <v>17988</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10766</v>
+        <v>11355</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>29066</v>
+        <v>28604</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02118643942268998</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0126801072154673</v>
+        <v>0.01337363654235182</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03423417896895994</v>
+        <v>0.03368904420274831</v>
       </c>
     </row>
     <row r="42">
@@ -6243,19 +6243,19 @@
         <v>393736</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>368270</v>
+        <v>368374</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>417181</v>
+        <v>418095</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6442946868821999</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.602624421515691</v>
+        <v>0.6027936087719732</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6826598673256855</v>
+        <v>0.6841552642372618</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>131</v>
@@ -6264,19 +6264,19 @@
         <v>132421</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>116397</v>
+        <v>116502</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>146734</v>
+        <v>147292</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.5565437356532499</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4891951903136465</v>
+        <v>0.4896382525563983</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6166962546799628</v>
+        <v>0.6190421380786491</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>493</v>
@@ -6285,19 +6285,19 @@
         <v>526157</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>496630</v>
+        <v>496723</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>554090</v>
+        <v>554121</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6197035078857857</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5849270029504277</v>
+        <v>0.585036925113774</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6526028133892374</v>
+        <v>0.6526394557340622</v>
       </c>
     </row>
     <row r="43">
